--- a/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU vs 2 GPU skalowalność.xlsx
+++ b/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU vs 2 GPU skalowalność.xlsx
@@ -357,11 +357,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55244672"/>
-        <c:axId val="54923264"/>
+        <c:axId val="101612160"/>
+        <c:axId val="101648256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55244672"/>
+        <c:axId val="101612160"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -388,12 +388,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54923264"/>
+        <c:crossAx val="101648256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54923264"/>
+        <c:axId val="101648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +424,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55244672"/>
+        <c:crossAx val="101612160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -437,7 +437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -447,16 +447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:BJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -843,6 +843,10 @@
       <c r="F5" s="4">
         <v>2692.3739009881538</v>
       </c>
+      <c r="H5">
+        <f>I28/F5</f>
+        <v>2.019865603194976</v>
+      </c>
       <c r="J5" s="2">
         <v>0.55936342592592592</v>
       </c>
@@ -965,6 +969,10 @@
       <c r="F6" s="4">
         <v>1423.6872233532144</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H20" si="0">I29/F6</f>
+        <v>2.0285225537463916</v>
+      </c>
       <c r="J6" s="2">
         <v>0.55937500000000007</v>
       </c>
@@ -1087,6 +1095,10 @@
       <c r="F7" s="4">
         <v>830.18193659124995</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.0115715001130585</v>
+      </c>
       <c r="J7" s="2">
         <v>0.55938657407407411</v>
       </c>
@@ -1209,6 +1221,10 @@
       <c r="F8" s="4">
         <v>497.84668398850005</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.924433534648452</v>
+      </c>
       <c r="J8" s="2">
         <v>0.55939814814814814</v>
       </c>
@@ -1331,6 +1347,10 @@
       <c r="F9" s="4">
         <v>515.06032369499997</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.0227632503138464</v>
+      </c>
       <c r="J9" s="2">
         <v>0.55940972222222218</v>
       </c>
@@ -1405,6 +1425,10 @@
       <c r="F10" s="4">
         <v>593.20778925320008</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.0521337751032118</v>
+      </c>
       <c r="J10" s="2">
         <v>0.55942129629629633</v>
       </c>
@@ -1455,6 +1479,10 @@
       <c r="F11" s="4">
         <v>598.47208114559987</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.8135892634024839</v>
+      </c>
       <c r="J11" s="2">
         <v>0.55943287037037037</v>
       </c>
@@ -1505,6 +1533,10 @@
       <c r="F12" s="4">
         <v>562.41642119325002</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.1713134191442709</v>
+      </c>
       <c r="J12" s="2">
         <v>0.55944444444444441</v>
       </c>
@@ -1555,6 +1587,10 @@
       <c r="F13" s="4">
         <v>560.03657184474991</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.7188580058888898</v>
+      </c>
       <c r="J13" s="2">
         <v>0.55945601851851856</v>
       </c>
@@ -1592,6 +1628,10 @@
       </c>
       <c r="F14" s="4">
         <v>510.99446570250001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.5206927016188647</v>
       </c>
       <c r="J14" s="2">
         <v>0.5594675925925926</v>
@@ -2001,15 +2041,15 @@
         <v>102.92857142857143</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ref="G29:G37" si="0">E29*D29</f>
+        <f t="shared" ref="G29:G37" si="1">E29*D29</f>
         <v>1443.9908210262859</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29:H37" si="1">F29*D29</f>
+        <f t="shared" ref="H29:H37" si="2">F29*D29</f>
         <v>1443.9908210262859</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29:I37" si="2">G29+H29</f>
+        <f t="shared" ref="I29:I37" si="3">G29+H29</f>
         <v>2887.9816420525717</v>
       </c>
       <c r="J29" s="2">
@@ -2027,7 +2067,7 @@
     </row>
     <row r="30" spans="3:19">
       <c r="C30">
-        <f t="shared" ref="C30:C37" si="3">2*C29</f>
+        <f t="shared" ref="C30:C37" si="4">2*C29</f>
         <v>4096</v>
       </c>
       <c r="D30" s="4">
@@ -2042,15 +2082,15 @@
         <v>114.375</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>835.44118862749997</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>834.52913492812502</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1669.9703235556249</v>
       </c>
       <c r="J30" s="2">
@@ -2068,7 +2108,7 @@
     </row>
     <row r="31" spans="3:19">
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8192</v>
       </c>
       <c r="D31" s="4">
@@ -2083,21 +2123,21 @@
         <v>121</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>485.38451409700002</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>472.68833968400003</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>958.07285378100005</v>
       </c>
     </row>
     <row r="32" spans="3:19">
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
       <c r="D32" s="4">
@@ -2112,21 +2152,21 @@
         <v>127</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527.50368728499996</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514.34140717999992</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1041.8450944649999</v>
       </c>
     </row>
     <row r="33" spans="3:62">
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32768</v>
       </c>
       <c r="D33" s="4">
@@ -2141,15 +2181,15 @@
         <v>131.80000000000001</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610.97121341440004</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>606.37052656640003</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1217.3417399808</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -2176,15 +2216,15 @@
         <v>127.8</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>548.9869928004</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>536.39554801140002</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1085.3825408118</v>
       </c>
       <c r="K34" t="s">
@@ -2220,7 +2260,7 @@
     </row>
     <row r="35" spans="3:62">
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131072</v>
       </c>
       <c r="D35" s="4">
@@ -2235,22 +2275,22 @@
         <v>135.6</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>605.59747888239997</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>615.58484360159991</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1221.182322484</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="3:62">
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>262144</v>
       </c>
       <c r="D36" s="4">
@@ -2265,15 +2305,15 @@
         <v>121.16666666666667</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>773.18546900000001</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>749.47444795066667</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1522.6599169506667</v>
       </c>
       <c r="J36" s="2">
@@ -2408,7 +2448,7 @@
     </row>
     <row r="37" spans="3:62">
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>524288</v>
       </c>
       <c r="D37" s="4">
@@ -2423,15 +2463,15 @@
         <v>129</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1647.4350703169232</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1684.602812757</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3332.0378830739232</v>
       </c>
       <c r="J37" s="2">
@@ -2827,6 +2867,10 @@
       </c>
     </row>
     <row r="40" spans="3:62">
+      <c r="D40">
+        <f>D28/D5</f>
+        <v>1.0149863529526715</v>
+      </c>
       <c r="J40" s="2">
         <v>0.69996527777777784</v>
       </c>
@@ -2958,6 +3002,10 @@
       </c>
     </row>
     <row r="41" spans="3:62">
+      <c r="D41">
+        <f t="shared" ref="D41:D49" si="5">D29/D6</f>
+        <v>1.0142612768731958</v>
+      </c>
       <c r="J41" s="2">
         <v>0.69996527777777784</v>
       </c>
@@ -3089,6 +3137,10 @@
       </c>
     </row>
     <row r="42" spans="3:62">
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>1.0008419642834498</v>
+      </c>
       <c r="J42" s="2">
         <v>0.69997685185185177</v>
       </c>
@@ -3220,6 +3272,10 @@
       </c>
     </row>
     <row r="43" spans="3:62">
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>0.99262320951286109</v>
+      </c>
       <c r="J43" s="2">
         <v>0.69997685185185177</v>
       </c>
@@ -3351,6 +3407,10 @@
       </c>
     </row>
     <row r="44" spans="3:62">
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>1.0516796296578308</v>
+      </c>
       <c r="J44" s="2">
         <v>0.69998842592592592</v>
       </c>
@@ -3458,6 +3518,10 @@
       </c>
     </row>
     <row r="45" spans="3:62">
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>1.0578648787758054</v>
+      </c>
       <c r="J45" s="2">
         <v>0.69998842592592592</v>
       </c>
@@ -3565,6 +3629,10 @@
       </c>
     </row>
     <row r="46" spans="3:62">
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>1.0323292326869513</v>
+      </c>
       <c r="J46" s="2">
         <v>0.70000000000000007</v>
       </c>
@@ -3627,6 +3695,10 @@
       </c>
     </row>
     <row r="47" spans="3:62">
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>1.2935054848247931</v>
+      </c>
       <c r="J47" s="2">
         <v>0.70000000000000007</v>
       </c>
@@ -3689,6 +3761,10 @@
       </c>
     </row>
     <row r="48" spans="3:62">
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>1.7588820748996843</v>
+      </c>
       <c r="J48" s="2">
         <v>0.70001157407407411</v>
       </c>
@@ -3738,7 +3814,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="10:62">
+    <row r="49" spans="4:62">
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>3.7183871706699074</v>
+      </c>
       <c r="J49" s="2">
         <v>0.70001157407407411</v>
       </c>
@@ -3788,7 +3868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="10:62">
+    <row r="50" spans="4:62">
       <c r="J50" s="2">
         <v>0.70002314814814814</v>
       </c>
@@ -3838,7 +3918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="10:62">
+    <row r="51" spans="4:62">
       <c r="J51" s="2">
         <v>0.70002314814814814</v>
       </c>
@@ -3888,7 +3968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="10:62">
+    <row r="52" spans="4:62">
       <c r="J52" s="2">
         <v>0.70003472222222218</v>
       </c>
@@ -3926,7 +4006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="10:62">
+    <row r="53" spans="4:62">
       <c r="J53" s="2">
         <v>0.70003472222222218</v>
       </c>
@@ -3964,7 +4044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="10:62">
+    <row r="54" spans="4:62">
       <c r="J54" s="2">
         <v>0.70004629629629633</v>
       </c>
@@ -4002,7 +4082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="10:62">
+    <row r="55" spans="4:62">
       <c r="J55" s="2">
         <v>0.70004629629629633</v>
       </c>
@@ -4040,7 +4120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="10:62">
+    <row r="56" spans="4:62">
       <c r="J56" s="2">
         <v>0.70005787037037026</v>
       </c>
@@ -4078,7 +4158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="10:62">
+    <row r="57" spans="4:62">
       <c r="J57" s="2">
         <v>0.70005787037037026</v>
       </c>
@@ -4116,7 +4196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="10:62">
+    <row r="58" spans="4:62">
       <c r="J58" s="2">
         <v>0.70008101851851856</v>
       </c>
@@ -4154,7 +4234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="10:62">
+    <row r="59" spans="4:62">
       <c r="J59" s="2">
         <v>0.70008101851851856</v>
       </c>
@@ -4192,7 +4272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="10:62">
+    <row r="60" spans="4:62">
       <c r="J60" s="2">
         <v>0.7000925925925926</v>
       </c>
@@ -4230,7 +4310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="10:62">
+    <row r="61" spans="4:62">
       <c r="J61" s="2">
         <v>0.7000925925925926</v>
       </c>
@@ -4268,7 +4348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="10:62">
+    <row r="62" spans="4:62">
       <c r="J62" s="2">
         <v>0.70010416666666664</v>
       </c>
@@ -4294,7 +4374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="10:62">
+    <row r="63" spans="4:62">
       <c r="J63" s="2">
         <v>0.70010416666666664</v>
       </c>
@@ -4320,7 +4400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="10:62">
+    <row r="64" spans="4:62">
       <c r="J64" s="2">
         <v>0.70011574074074068</v>
       </c>
